--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Lab 1 - 3238 Software Design</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Date(2001, 2, 1)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -106,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -400,22 +409,22 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -425,8 +434,11 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -436,8 +448,11 @@
       <c r="E7">
         <v>171</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -447,8 +462,11 @@
       <c r="E8">
         <v>-365</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -456,7 +474,10 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
